--- a/biology/Médecine/Lawrence_Kubie/Lawrence_Kubie.xlsx
+++ b/biology/Médecine/Lawrence_Kubie/Lawrence_Kubie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lawrence Schlesinger Kubie (1896-1973) est un neurologue, psychanalyste et psychothérapeute américain connu notamment pour ses travaux sur l'hypnose.
 </t>
@@ -511,7 +523,9 @@
           <t>Thèses</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon lui, l'hypnose n'est pas due à la suggestibilité, elle en est la cause.
 Dès 1944, avec Sydney G. Margolin, il souligne que l'instauration des processus hypnotiques dépend d'une interaction subtile entre les processus psychophysiologiques et les processus psychodynamiques.
@@ -544,7 +558,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans ses articles de 1930 et 1941, Kubie propose la théorie des « circuits fermés réverbérants » comme possible soubassement neurophysiologique des névroses, qui fut reprise par Warren McCulloch. John Z. Young testa cette théorie sur le poulpe et ses travaux furent discutés lors de la 9e conférence Macy.
 Kubie participe aux conférences Macy de 1942 à 1953. Lors des conférences, il remet sans cesse sur le tapis la question du siège de la notion d’inconscient et doit souvent affronter les autres participants. « Ou un événement se produit, ou il ne se produit pas » lui rétorque notamment Arturo Rosenblueth.
@@ -577,7 +593,9 @@
           <t>Articles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>« Application théorique à certains problèmes neurologiques des propriétés d'ondes excitatrices se déplaçant à l'intérieur de circuits fermés », in Brain, 1930
 (en) « Repetitive Core of Neuroses », in Psychoanal. Quart., 1941
